--- a/document/Test/BugList/MessageControllerBugList.xlsx
+++ b/document/Test/BugList/MessageControllerBugList.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>giao diện lỗi</t>
   </si>
   <si>
     <t>số tin nhắn chưa đọc không khớp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chưa có nút truy cập tin nhắn </t>
+  </si>
+  <si>
+    <t>và thông báo tin nhắn</t>
   </si>
 </sst>
 </file>
@@ -317,6 +323,106 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295899" y="619125"/>
+          <a:ext cx="619125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5915025" y="714375"/>
+          <a:ext cx="3248025" cy="9527"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -605,14 +711,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="P8:P12"/>
+  <dimension ref="P4:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="4" spans="16:16">
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="16:16">
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="8" spans="16:16">
       <c r="P8" t="s">
         <v>0</v>

--- a/document/Test/BugList/MessageControllerBugList.xlsx
+++ b/document/Test/BugList/MessageControllerBugList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>giao diện lỗi</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>và thông báo tin nhắn</t>
+  </si>
+  <si>
+    <t>Drop down list không hiện thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chưa validate </t>
+  </si>
+  <si>
+    <t>Chưa việt hóa</t>
+  </si>
+  <si>
+    <t>Sai chữ</t>
   </si>
 </sst>
 </file>
@@ -398,6 +410,606 @@
         <a:xfrm flipV="1">
           <a:off x="5915025" y="714375"/>
           <a:ext cx="3248025" cy="9527"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="1390650"/>
+          <a:ext cx="438150" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2333625" y="1619250"/>
+          <a:ext cx="7305675" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="4333875"/>
+          <a:ext cx="438150" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047749" y="5010150"/>
+          <a:ext cx="3971925" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412576</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="3162299"/>
+          <a:ext cx="8318326" cy="4676775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076324" y="4305300"/>
+          <a:ext cx="1095375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019174" y="5086349"/>
+          <a:ext cx="4057651" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2171700" y="4476750"/>
+          <a:ext cx="6896100" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2324100" y="4467225"/>
+          <a:ext cx="6743700" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79027</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>13401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="79027" y="6791324"/>
+          <a:ext cx="8274397" cy="4652077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162174" y="9134475"/>
+          <a:ext cx="1123951" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3286125" y="7543800"/>
+          <a:ext cx="5857875" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -711,32 +1323,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="P4:P12"/>
+  <dimension ref="P4:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="16:16">
+    <row r="4" spans="16:17">
       <c r="P4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="16:16">
+    <row r="5" spans="16:17">
       <c r="P5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="16:16">
+    <row r="8" spans="16:17">
       <c r="P8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="16:16">
+    <row r="9" spans="16:17">
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="16:17">
       <c r="P12" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="16:16">
+      <c r="P24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="16:16">
+      <c r="P25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="16:16">
+      <c r="P40" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
